--- a/org.stadiumgoods.com/src/test/resources/testdata.xlsx
+++ b/org.stadiumgoods.com/src/test/resources/testdata.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37DA107-504A-4FB8-98CF-686977136ECD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunManager" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -120,12 +121,21 @@
   </si>
   <si>
     <t>test11</t>
+  </si>
+  <si>
+    <t>abcdd</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>test11111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,10 +174,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -262,6 +275,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,21 +519,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.90625" customWidth="1"/>
-    <col min="2" max="2" width="50.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -520,7 +567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -537,7 +584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -554,7 +601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -571,7 +618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -594,19 +641,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6328125" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -634,7 +681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -648,7 +695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -662,7 +709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -676,7 +723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -690,9 +737,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -704,11 +751,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Dhl@1234"/>
-    <hyperlink ref="C3" r:id="rId2" display="Dhl@1234"/>
-    <hyperlink ref="C4" r:id="rId3" display="Dhl@1234"/>
+    <hyperlink ref="C2" r:id="rId1" display="Dhl@1234" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" display="Dhl@1234" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="Dhl@1234" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
